--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="-22120" windowWidth="30320" windowHeight="19040" tabRatio="500"/>
+    <workbookView xWindow="-360" yWindow="-21820" windowWidth="30320" windowHeight="19040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -465,6 +465,475 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.034003644506008"/>
+          <c:y val="0.050880626223092"/>
+          <c:w val="0.942085168474351"/>
+          <c:h val="0.758519500130977"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$232:$E$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2028317920"/>
+        <c:axId val="2048407952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2028317920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2048407952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2048407952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2028317920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0341787705721334"/>
+          <c:y val="0.0478821362799263"/>
+          <c:w val="0.945220371058768"/>
+          <c:h val="0.78748336016009"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$249:$E$249</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2054406768"/>
+        <c:axId val="-2128646704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2054406768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2128646704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2128646704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054406768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1770,7 +2239,792 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0457825098340856"/>
+          <c:y val="0.0352781546811397"/>
+          <c:w val="0.931938141408416"/>
+          <c:h val="0.832569151379822"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$164:$E$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2050520096"/>
+        <c:axId val="2050519168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2050520096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050519168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2050519168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050520096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0458611064174918"/>
+          <c:y val="0.0408163265306122"/>
+          <c:w val="0.931821297015985"/>
+          <c:h val="0.815704026007738"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$190:$E$190</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2129125824"/>
+        <c:axId val="2055056928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2129125824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055056928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2055056928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2129125824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0339456672775238"/>
+          <c:y val="0.0425531914893617"/>
+          <c:w val="0.947299004504232"/>
+          <c:h val="0.791495032024434"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$212:$E$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2128904912"/>
+        <c:axId val="2052944576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2128904912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2052944576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2052944576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2128904912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2010,6 +3264,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2529,7 +3903,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3032,8 +4406,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3237,23 +4611,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3358,8 +4731,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3491,20 +4864,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3537,8 +4909,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3742,23 +5114,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3863,8 +5234,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3996,20 +5367,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4042,8 +5412,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4247,6 +5617,1016 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -4546,6 +6926,1515 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5230,6 +9119,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5858,6 +9897,1080 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0377</cdr:x>
+      <cdr:y>0.91634</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1851</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="279400" y="4288419"/>
+          <a:ext cx="1092273" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Not at all</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88517</cdr:x>
+      <cdr:y>0.90909</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98972</cdr:x>
+      <cdr:y>0.99275</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6559477" y="4254500"/>
+          <a:ext cx="774773" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Perfectly</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0309</cdr:x>
+      <cdr:y>0.9032</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17855</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="228600" y="3653419"/>
+          <a:ext cx="1092273" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Bad</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88497</cdr:x>
+      <cdr:y>0.9032</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.97174</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6546777" y="3653419"/>
+          <a:ext cx="850973" cy="277231"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Good</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87468</cdr:x>
+      <cdr:y>0.89909</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6515101" y="3488319"/>
+          <a:ext cx="933449" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Difficult</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01876</cdr:x>
+      <cdr:y>0.89909</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1654</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="139700" y="3488319"/>
+          <a:ext cx="1092273" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Easy</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00512</cdr:x>
+      <cdr:y>0.86106</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15202</cdr:x>
+      <cdr:y>0.98172</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="38100" y="2794000"/>
+          <a:ext cx="1092273" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No knowledge required</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80615</cdr:x>
+      <cdr:y>0.85714</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99744</cdr:x>
+      <cdr:y>0.97781</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5994400" y="2781300"/>
+          <a:ext cx="1422399" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very good knowledge required</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01717</cdr:x>
+      <cdr:y>0.8975</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16482</cdr:x>
+      <cdr:y>0.98158</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="127000" y="3094619"/>
+          <a:ext cx="1092273" cy="289931"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Bad</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88069</cdr:x>
+      <cdr:y>0.89871</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99572</cdr:x>
+      <cdr:y>0.97911</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6515100" y="3098800"/>
+          <a:ext cx="850973" cy="277231"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Good</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -6121,10 +11234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J140"/>
+  <dimension ref="A3:J249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="I272" sqref="I272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6323,6 +11436,91 @@
         <v>0</v>
       </c>
     </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>4</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>5</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>4</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="-21820" windowWidth="30320" windowHeight="19040" tabRatio="500"/>
+    <workbookView xWindow="5120" yWindow="2180" windowWidth="30320" windowHeight="19040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,6 +888,1886 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2054406768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0341201951298504"/>
+          <c:y val="0.0450606585788561"/>
+          <c:w val="0.940172863996114"/>
+          <c:h val="0.786141186424487"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$268:$E$268</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2050138688"/>
+        <c:axId val="2050596080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2050138688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050596080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2050596080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050138688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.034003644506008"/>
+          <c:y val="0.054054054054054"/>
+          <c:w val="0.947208994264274"/>
+          <c:h val="0.739300342134988"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$288:$E$288</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2053815136"/>
+        <c:axId val="2050113936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2053815136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050113936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2050113936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053815136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0341787705721334"/>
+          <c:y val="0.0500963391136801"/>
+          <c:w val="0.941786894663918"/>
+          <c:h val="0.769948871997937"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$306:$E$306</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2130255104"/>
+        <c:axId val="-2130331376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2130255104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2130331376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2130331376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2130255104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0339456672775238"/>
+          <c:y val="0.050682261208577"/>
+          <c:w val="0.940478885152144"/>
+          <c:h val="0.751663673619745"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$324:$E$324</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1650948576"/>
+        <c:axId val="1650714464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1650948576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1650714464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1650714464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1650948576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0341201951298504"/>
+          <c:y val="0.050880626223092"/>
+          <c:w val="0.940172863996114"/>
+          <c:h val="0.754605605806123"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$343:$E$343</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1919599104"/>
+        <c:axId val="-2126226000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1919599104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2126226000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2126226000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1919599104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0341201951298504"/>
+          <c:y val="0.0475319926873857"/>
+          <c:w val="0.945314252170921"/>
+          <c:h val="0.759786955332594"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$360:$E$360</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2048667296"/>
+        <c:axId val="1649191680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2048667296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649191680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1649191680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2048667296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.033887887418328"/>
+          <c:y val="0.0478821362799263"/>
+          <c:w val="0.945686580666778"/>
+          <c:h val="0.758017430141674"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$380:$E$380</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1677726624"/>
+        <c:axId val="1677948208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1677726624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1677948208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1677948208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1677726624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.034003644506008"/>
+          <c:y val="0.0502901353965184"/>
+          <c:w val="0.945501052334299"/>
+          <c:h val="0.753585037847058"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$400:$E$400</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2125501504"/>
+        <c:axId val="-2125499728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2125501504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125499728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2125499728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125501504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3064,6 +4945,326 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4407,6 +6608,4030 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9269,7 +15494,2297 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>194681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CaixaDeTexto 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6597650" y="46742350"/>
+          <a:ext cx="1422399" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very good knowledge required</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>143881</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CaixaDeTexto 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6750050" y="46894750"/>
+          <a:ext cx="1422399" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very good knowledge required</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>143881</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CaixaDeTexto 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6597650" y="46894750"/>
+          <a:ext cx="1422399" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very good knowledge required</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Gráfico 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Gráfico 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Gráfico 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Gráfico 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Gráfico 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Gráfico 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86631</cdr:x>
+      <cdr:y>0.90295</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.97227</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6419777" y="3308350"/>
+          <a:ext cx="990673" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Difficult</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01371</cdr:x>
+      <cdr:y>0.89314</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16111</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="101600" y="3272419"/>
+          <a:ext cx="1092273" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Easy</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00683</cdr:x>
+      <cdr:y>0.85239</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15372</cdr:x>
+      <cdr:y>0.98058</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="2603500"/>
+          <a:ext cx="1092273" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No knowledge required</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80871</cdr:x>
+      <cdr:y>0.85239</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.98058</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6013451" y="2603500"/>
+          <a:ext cx="1422399" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very good knowledge required</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01202</cdr:x>
+      <cdr:y>0.8812</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15967</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="88900" y="2904119"/>
+          <a:ext cx="1092273" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Easy</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86608</cdr:x>
+      <cdr:y>0.89017</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.96724</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6407077" y="2933700"/>
+          <a:ext cx="990673" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Difficult</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01194</cdr:x>
+      <cdr:y>0.88499</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15858</cdr:x>
+      <cdr:y>0.97399</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="88900" y="2882900"/>
+          <a:ext cx="1092273" cy="289931"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Bad</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88321</cdr:x>
+      <cdr:y>0.88499</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99745</cdr:x>
+      <cdr:y>0.97009</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6578600" y="2882900"/>
+          <a:ext cx="850973" cy="277231"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Good</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01371</cdr:x>
+      <cdr:y>0.87934</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16111</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="101600" y="2853319"/>
+          <a:ext cx="1092273" cy="391531"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Easy</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86631</cdr:x>
+      <cdr:y>0.88454</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.96282</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6419777" y="2870200"/>
+          <a:ext cx="990673" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Difficult</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01885</cdr:x>
+      <cdr:y>0.88483</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16625</cdr:x>
+      <cdr:y>0.9683</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="139700" y="3073400"/>
+          <a:ext cx="1092273" cy="289931"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Bad</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88517</cdr:x>
+      <cdr:y>0.88117</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.96098</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6559477" y="3060700"/>
+          <a:ext cx="850973" cy="277231"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Very Good</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00851</cdr:x>
+      <cdr:y>0.88029</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1549</cdr:x>
+      <cdr:y>0.96438</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="63500" y="3035300"/>
+          <a:ext cx="1092273" cy="289931"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Not at all</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88595</cdr:x>
+      <cdr:y>0.88029</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.9607</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6610277" y="3035300"/>
+          <a:ext cx="850973" cy="277231"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Perfectly</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00854</cdr:x>
+      <cdr:y>0.87814</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15543</cdr:x>
+      <cdr:y>0.96646</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="63500" y="2882900"/>
+          <a:ext cx="1092273" cy="289931"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Not at all</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88556</cdr:x>
+      <cdr:y>0.88588</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.97033</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6584877" y="2908300"/>
+          <a:ext cx="850973" cy="277231"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Perfectly</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11234,10 +19749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J249"/>
+  <dimension ref="A3:J400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="I272" sqref="I272"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11521,6 +20036,142 @@
         <v>1</v>
       </c>
     </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>0</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>0</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>0</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>4</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -337,9 +337,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -515,7 +513,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$232:$E$232</c:f>
+              <c:f>Folha1!$A$246:$E$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -548,11 +546,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2028317920"/>
-        <c:axId val="2048407952"/>
+        <c:axId val="-260452368"/>
+        <c:axId val="-260437024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2028317920"/>
+        <c:axId val="-260452368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,7 +593,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048407952"/>
+        <c:crossAx val="-260437024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -603,7 +601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048407952"/>
+        <c:axId val="-260437024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +651,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028317920"/>
+        <c:crossAx val="-260452368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -747,9 +745,314 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.0147331100187062"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>66.7%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0679141630901288"/>
+                      <c:h val="0.0883426864459622"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.014732965009208"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>16.7%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.064480686695279"/>
+                      <c:h val="0.106758892707472"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00171673819742502"/>
+                  <c:y val="0.0257828337756122"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>16.7%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0610472103004292"/>
+                      <c:h val="0.110442133959774"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$249:$E$249</c:f>
+              <c:f>Folha1!$A$263:$E$263</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -773,8 +1076,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -782,11 +1086,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2054406768"/>
-        <c:axId val="-2128646704"/>
+        <c:axId val="-261461904"/>
+        <c:axId val="-261459584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2054406768"/>
+        <c:axId val="-261461904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +1133,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128646704"/>
+        <c:crossAx val="-261459584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -837,7 +1141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128646704"/>
+        <c:axId val="-261459584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,6 +1161,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -887,7 +1192,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054406768"/>
+        <c:crossAx val="-261461904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -984,7 +1289,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$268:$E$268</c:f>
+              <c:f>Folha1!$A$282:$E$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -995,7 +1300,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -1017,11 +1322,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2050138688"/>
-        <c:axId val="2050596080"/>
+        <c:axId val="-261437984"/>
+        <c:axId val="-261435232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050138688"/>
+        <c:axId val="-261437984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1369,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050596080"/>
+        <c:crossAx val="-261435232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +1377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050596080"/>
+        <c:axId val="-261435232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1427,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050138688"/>
+        <c:crossAx val="-261437984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -1219,12 +1524,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$288:$E$288</c:f>
+              <c:f>Folha1!$A$302:$E$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
@@ -1252,11 +1557,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2053815136"/>
-        <c:axId val="2050113936"/>
+        <c:axId val="-163375200"/>
+        <c:axId val="-163372720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2053815136"/>
+        <c:axId val="-163375200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1604,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050113936"/>
+        <c:crossAx val="-163372720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050113936"/>
+        <c:axId val="-163372720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,7 +1662,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2053815136"/>
+        <c:crossAx val="-163375200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -1454,7 +1759,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$306:$E$306</c:f>
+              <c:f>Folha1!$A$320:$E$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1487,11 +1792,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2130255104"/>
-        <c:axId val="-2130331376"/>
+        <c:axId val="-163348704"/>
+        <c:axId val="-163345952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130255104"/>
+        <c:axId val="-163348704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1839,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130331376"/>
+        <c:crossAx val="-163345952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1542,7 +1847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130331376"/>
+        <c:axId val="-163345952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1897,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130255104"/>
+        <c:crossAx val="-163348704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -1687,9 +1992,299 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>33.3%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.058925831202046"/>
+                      <c:h val="0.109103467329742"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>33.3%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0640409207161125"/>
+                      <c:h val="0.0779143835090789"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>33.3%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0640409207161125"/>
+                      <c:h val="0.0623198415987475"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$324:$E$324</c:f>
+              <c:f>Folha1!$A$338:$E$338</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1713,8 +2308,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1722,11 +2318,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1650948576"/>
-        <c:axId val="1650714464"/>
+        <c:axId val="-163326832"/>
+        <c:axId val="-163324080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1650948576"/>
+        <c:axId val="-163326832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,7 +2365,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1650714464"/>
+        <c:crossAx val="-163324080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1777,7 +2373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1650714464"/>
+        <c:axId val="-163324080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +2423,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1650948576"/>
+        <c:crossAx val="-163326832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -1924,7 +2520,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$343:$E$343</c:f>
+              <c:f>Folha1!$A$357:$E$357</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1957,11 +2553,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1919599104"/>
-        <c:axId val="-2126226000"/>
+        <c:axId val="-163303872"/>
+        <c:axId val="-163301120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1919599104"/>
+        <c:axId val="-163303872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +2600,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126226000"/>
+        <c:crossAx val="-163301120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2012,7 +2608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126226000"/>
+        <c:axId val="-163301120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2658,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1919599104"/>
+        <c:crossAx val="-163303872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2159,7 +2755,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$360:$E$360</c:f>
+              <c:f>Folha1!$A$374:$E$374</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2192,11 +2788,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2048667296"/>
-        <c:axId val="1649191680"/>
+        <c:axId val="-224317552"/>
+        <c:axId val="-224292528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048667296"/>
+        <c:axId val="-224317552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,7 +2835,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1649191680"/>
+        <c:crossAx val="-224292528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2247,7 +2843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1649191680"/>
+        <c:axId val="-224292528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2893,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048667296"/>
+        <c:crossAx val="-224317552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2394,7 +2990,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$380:$E$380</c:f>
+              <c:f>Folha1!$A$394:$E$394</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2427,11 +3023,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1677726624"/>
-        <c:axId val="1677948208"/>
+        <c:axId val="-261414672"/>
+        <c:axId val="-261411920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1677726624"/>
+        <c:axId val="-261414672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,7 +3070,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1677948208"/>
+        <c:crossAx val="-261411920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2482,7 +3078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1677948208"/>
+        <c:axId val="-261411920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +3128,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1677726624"/>
+        <c:crossAx val="-261414672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2629,7 +3225,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$400:$E$400</c:f>
+              <c:f>Folha1!$A$414:$E$414</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2662,11 +3258,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2125501504"/>
-        <c:axId val="-2125499728"/>
+        <c:axId val="-260421920"/>
+        <c:axId val="-260419440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125501504"/>
+        <c:axId val="-260421920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +3305,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125499728"/>
+        <c:crossAx val="-260419440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2717,7 +3313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125499728"/>
+        <c:axId val="-260419440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2767,7 +3363,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125501504"/>
+        <c:crossAx val="-260421920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2862,6 +3458,325 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>8%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.0128572553430821"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>25%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.059136563876652"/>
+                      <c:h val="0.0456715410573678"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00176211453744493"/>
+                  <c:y val="0.0200001124859393"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>50%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0468017621145374"/>
+                      <c:h val="0.0628143982002249"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.0114285714285714"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>17%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0520881057268722"/>
+                      <c:h val="0.0542429696287964"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$A$31:$E$31</c:f>
@@ -2888,8 +3803,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2897,11 +3813,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2051467792"/>
-        <c:axId val="2025809648"/>
+        <c:axId val="-163454768"/>
+        <c:axId val="-163452016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2051467792"/>
+        <c:axId val="-163454768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2943,7 +3859,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2025809648"/>
+        <c:crossAx val="-163452016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2951,7 +3867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2025809648"/>
+        <c:axId val="-163452016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,7 +3917,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051467792"/>
+        <c:crossAx val="-163454768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3086,6 +4002,469 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00713641504000238"/>
+                  <c:y val="0.00286955342920729"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{2B681C16-0701-5F45-BFD5-2CBDEB308820}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> - 92%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0893903548680619"/>
+                      <c:h val="0.0688236423818615"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00727934485896269"/>
+                  <c:y val="1.12970096815373E-7"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{6E6685D9-B114-6F4D-91C6-BC0543E78DB1}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> -</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="mr-IN" baseline="0"/>
+                      <a:t> 75%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.112029117379436"/>
+                      <c:h val="0.065954201922751"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00727934485896269"/>
+                  <c:y val="0.00286955342920724"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{7873BE85-CD61-B646-81B3-DA4D97805DA1}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> - 33%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.108389444949955"/>
+                      <c:h val="0.0630847614636405"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0209281164695178"/>
+                  <c:y val="-0.00143472022955524"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{8EEE03BA-8B74-794F-A14C-852B6AA7C1E3}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> - 58%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.141146496815287"/>
+                      <c:h val="0.071693082840972"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0127388535031848"/>
+                  <c:y val="0.00430416068866571"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{D33FBAC9-6463-2646-9465-FF998085A354}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> -</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="mr-IN" baseline="0"/>
+                      <a:t> 33%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.101110100090992"/>
+                      <c:h val="0.0745625233000825"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3126,21 +4505,7 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3214,11 +4579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2029685744"/>
-        <c:axId val="2028656512"/>
+        <c:axId val="-163430272"/>
+        <c:axId val="-163427520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2029685744"/>
+        <c:axId val="-163430272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,7 +4626,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028656512"/>
+        <c:crossAx val="-163427520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3269,7 +4634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2028656512"/>
+        <c:axId val="-163427520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,10 +4654,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2029685744"/>
+        <c:crossAx val="-163430272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3376,6 +4742,552 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00444444444444445"/>
+                  <c:y val="0.00285306704707561"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{3DCE292D-EC7F-9D42-9339-86DEC74957A9}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> - 8%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0703288888888889"/>
+                      <c:h val="0.0541655902142047"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00711111111111111"/>
+                  <c:y val="0.00285306704707561"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{7F815AB7-1A01-7A42-A77E-26B5442B8FE5}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> - 8%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0738844444444445"/>
+                      <c:h val="0.0570186572612803"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00711111111111111"/>
+                  <c:y val="0.00285317937254995"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{4B879D77-8094-9B4E-B46C-7A0169C96B91}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> - 33%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.07744"/>
+                      <c:h val="0.0627247913554315"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00711111111111111"/>
+                  <c:y val="0.00285306704707555"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{76AA7A0D-A976-5147-8ECC-14D2726EB80C}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> - 8%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0703288888888889"/>
+                      <c:h val="0.0541655902142047"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00711111111111111"/>
+                  <c:y val="-0.00285295472160131"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{72D1B7B9-AC63-2247-BA2A-64A20B5CBFCE}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> - 33%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0898844444444444"/>
+                      <c:h val="0.0684309254495827"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00711111111111111"/>
+                  <c:y val="0.0028531793725499"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{8C3EB13C-3A19-364F-9620-FAC5FC2955AC}" type="VALUE">
+                      <a:rPr lang="mr-IN"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t> - 25%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.07744"/>
+                      <c:h val="0.0598717243083559"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3522,11 +5434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1918717120"/>
-        <c:axId val="2049219216"/>
+        <c:axId val="-163406752"/>
+        <c:axId val="-163404000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1918717120"/>
+        <c:axId val="-163406752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,7 +5481,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2049219216"/>
+        <c:crossAx val="-163404000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3577,7 +5489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2049219216"/>
+        <c:axId val="-163404000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +5512,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1918717120"/>
+        <c:crossAx val="-163406752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3728,11 +5640,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2052801120"/>
-        <c:axId val="2052134288"/>
+        <c:axId val="-163384432"/>
+        <c:axId val="-163381680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2052801120"/>
+        <c:axId val="-163384432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,7 +5687,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2052134288"/>
+        <c:crossAx val="-163381680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3783,7 +5695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052134288"/>
+        <c:axId val="-163381680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +5745,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2052801120"/>
+        <c:crossAx val="-163384432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3963,11 +5875,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2047609824"/>
-        <c:axId val="2049483616"/>
+        <c:axId val="-260511728"/>
+        <c:axId val="-260508976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2047609824"/>
+        <c:axId val="-260511728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4010,7 +5922,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2049483616"/>
+        <c:crossAx val="-260508976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4018,7 +5930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2049483616"/>
+        <c:axId val="-260508976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -4069,7 +5981,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047609824"/>
+        <c:crossAx val="-260511728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4166,7 +6078,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$164:$E$164</c:f>
+              <c:f>Folha1!$A$178:$E$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4199,11 +6111,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2050520096"/>
-        <c:axId val="2050519168"/>
+        <c:axId val="-260489808"/>
+        <c:axId val="-260487056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050520096"/>
+        <c:axId val="-260489808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4246,7 +6158,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050519168"/>
+        <c:crossAx val="-260487056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4254,7 +6166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050519168"/>
+        <c:axId val="-260487056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,7 +6216,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050520096"/>
+        <c:crossAx val="-260489808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4399,9 +6311,396 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00171673819742496"/>
+                  <c:y val="0.00941915227629513"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>12.5%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0593304721030043"/>
+                      <c:h val="0.084725398336197"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.75881179459077E-8"/>
+                  <c:y val="0.0156987107380808"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>37.5%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.107399141630901"/>
+                      <c:h val="0.0972842680379238"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.25892680154841E-16"/>
+                  <c:y val="0.0156985871271585"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>37.5%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0610472103004292"/>
+                      <c:h val="0.0784459634853335"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00343347639484978"/>
+                  <c:y val="0.0125589933126491"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="mr-IN"/>
+                      <a:t>12.5%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.0627639484978541"/>
+                      <c:h val="0.0941445506124921"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$190:$E$190</c:f>
+              <c:f>Folha1!$A$204:$E$204</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4425,8 +6724,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4434,11 +6734,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2129125824"/>
-        <c:axId val="2055056928"/>
+        <c:axId val="-260466272"/>
+        <c:axId val="-260463520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129125824"/>
+        <c:axId val="-260466272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4481,7 +6781,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2055056928"/>
+        <c:crossAx val="-260463520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4489,7 +6789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2055056928"/>
+        <c:axId val="-260463520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,7 +6839,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129125824"/>
+        <c:crossAx val="-260466272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4636,7 +6936,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$A$212:$E$212</c:f>
+              <c:f>Folha1!$A$226:$E$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4669,11 +6969,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2128904912"/>
-        <c:axId val="2052944576"/>
+        <c:axId val="-260442656"/>
+        <c:axId val="-260439904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128904912"/>
+        <c:axId val="-260442656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4716,7 +7016,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2052944576"/>
+        <c:crossAx val="-260439904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4724,7 +7024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2052944576"/>
+        <c:axId val="-260439904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4774,7 +7074,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128904912"/>
+        <c:crossAx val="-260442656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -15233,7 +17533,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -15348,13 +17648,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15378,13 +17678,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15408,13 +17708,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15438,13 +17738,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15468,13 +17768,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15498,13 +17798,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15528,13 +17828,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15556,348 +17856,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>194681</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CaixaDeTexto 16"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6597650" y="46742350"/>
-          <a:ext cx="1422399" cy="391531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Very good knowledge required</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>742949</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>143881</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CaixaDeTexto 17"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6750050" y="46894750"/>
-          <a:ext cx="1422399" cy="391531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Very good knowledge required</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>143881</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CaixaDeTexto 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6597650" y="46894750"/>
-          <a:ext cx="1422399" cy="391531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Very good knowledge required</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15921,13 +17888,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15951,13 +17918,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>355</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15981,13 +17948,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>358</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16011,13 +17978,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16041,13 +18008,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>414</xdr:row>
+      <xdr:row>428</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19749,10 +21716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J400"/>
+  <dimension ref="A3:J414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="G346" sqref="G346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19951,224 +21918,224 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
         <v>0</v>
       </c>
-      <c r="B164">
+      <c r="B178">
         <v>1</v>
       </c>
-      <c r="C164">
+      <c r="C178">
         <v>4</v>
       </c>
-      <c r="D164">
+      <c r="D178">
         <v>1</v>
       </c>
-      <c r="E164">
+      <c r="E178">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204">
         <v>0</v>
       </c>
-      <c r="B190">
+      <c r="B204">
         <v>1</v>
       </c>
-      <c r="C190">
+      <c r="C204">
         <v>3</v>
       </c>
-      <c r="D190">
+      <c r="D204">
         <v>3</v>
       </c>
-      <c r="E190">
+      <c r="E204">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226">
         <v>2</v>
       </c>
-      <c r="B212">
+      <c r="B226">
         <v>1</v>
       </c>
-      <c r="C212">
+      <c r="C226">
         <v>1</v>
       </c>
-      <c r="D212">
+      <c r="D226">
         <v>4</v>
       </c>
-      <c r="E212">
+      <c r="E226">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246">
         <v>0</v>
       </c>
-      <c r="B232">
+      <c r="B246">
         <v>0</v>
       </c>
-      <c r="C232">
+      <c r="C246">
         <v>3</v>
       </c>
-      <c r="D232">
+      <c r="D246">
         <v>5</v>
       </c>
-      <c r="E232">
+      <c r="E246">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263">
         <v>0</v>
       </c>
-      <c r="B249">
+      <c r="B263">
         <v>0</v>
       </c>
-      <c r="C249">
+      <c r="C263">
         <v>4</v>
       </c>
-      <c r="D249">
+      <c r="D263">
         <v>1</v>
       </c>
-      <c r="E249">
+      <c r="E263">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282">
         <v>1</v>
       </c>
-      <c r="B268">
+      <c r="B282">
         <v>1</v>
       </c>
-      <c r="C268">
-        <v>2</v>
+      <c r="C282">
+        <v>3</v>
       </c>
-      <c r="D268">
+      <c r="D282">
         <v>0</v>
       </c>
-      <c r="E268">
+      <c r="E282">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>2</v>
+      </c>
+      <c r="B302">
         <v>1</v>
       </c>
-      <c r="B288">
+      <c r="C302">
         <v>1</v>
       </c>
-      <c r="C288">
+      <c r="D302">
         <v>1</v>
       </c>
-      <c r="D288">
-        <v>1</v>
-      </c>
-      <c r="E288">
+      <c r="E302">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320">
         <v>2</v>
       </c>
-      <c r="B306">
+      <c r="B320">
         <v>1</v>
       </c>
-      <c r="C306">
+      <c r="C320">
         <v>1</v>
       </c>
-      <c r="D306">
+      <c r="D320">
         <v>0</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E320" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338">
         <v>1</v>
       </c>
-      <c r="B324">
+      <c r="B338">
         <v>0</v>
       </c>
-      <c r="C324">
+      <c r="C338">
         <v>1</v>
       </c>
-      <c r="D324">
+      <c r="D338">
         <v>0</v>
       </c>
-      <c r="E324">
+      <c r="E338">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357">
         <v>0</v>
       </c>
-      <c r="B343">
+      <c r="B357">
         <v>0</v>
       </c>
-      <c r="C343">
+      <c r="C357">
         <v>1</v>
       </c>
-      <c r="D343">
+      <c r="D357">
         <v>0</v>
       </c>
-      <c r="E343">
+      <c r="E357">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374">
         <v>0</v>
       </c>
-      <c r="B360">
+      <c r="B374">
         <v>0</v>
       </c>
-      <c r="C360">
+      <c r="C374">
         <v>0</v>
       </c>
-      <c r="D360">
+      <c r="D374">
         <v>1</v>
       </c>
-      <c r="E360">
+      <c r="E374">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394">
         <v>0</v>
       </c>
-      <c r="B380">
+      <c r="B394">
         <v>2</v>
       </c>
-      <c r="C380">
+      <c r="C394">
         <v>2</v>
       </c>
-      <c r="D380">
+      <c r="D394">
         <v>2</v>
       </c>
-      <c r="E380">
+      <c r="E394">
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414">
         <v>0</v>
       </c>
-      <c r="B400">
+      <c r="B414">
         <v>0</v>
       </c>
-      <c r="C400">
+      <c r="C414">
         <v>1</v>
       </c>
-      <c r="D400">
+      <c r="D414">
         <v>4</v>
       </c>
-      <c r="E400">
+      <c r="E414">
         <v>0</v>
       </c>
     </row>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -546,11 +546,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-260452368"/>
-        <c:axId val="-260437024"/>
+        <c:axId val="1524009680"/>
+        <c:axId val="1524012432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-260452368"/>
+        <c:axId val="1524009680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +593,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260437024"/>
+        <c:crossAx val="1524012432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -601,7 +601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-260437024"/>
+        <c:axId val="1524012432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,7 +651,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260452368"/>
+        <c:crossAx val="1524009680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1086,11 +1086,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-261461904"/>
-        <c:axId val="-261459584"/>
+        <c:axId val="1524036368"/>
+        <c:axId val="1524039376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-261461904"/>
+        <c:axId val="1524036368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1133,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-261459584"/>
+        <c:crossAx val="1524039376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1141,7 +1141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-261459584"/>
+        <c:axId val="1524039376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1192,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-261461904"/>
+        <c:crossAx val="1524036368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -1294,19 +1294,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,11 +1322,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-261437984"/>
-        <c:axId val="-261435232"/>
+        <c:axId val="1524058896"/>
+        <c:axId val="1524061648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-261437984"/>
+        <c:axId val="1524058896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1369,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-261435232"/>
+        <c:crossAx val="1524061648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1377,7 +1377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-261435232"/>
+        <c:axId val="1524061648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1427,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-261437984"/>
+        <c:crossAx val="1524058896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -1557,11 +1557,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-163375200"/>
-        <c:axId val="-163372720"/>
+        <c:axId val="1524076816"/>
+        <c:axId val="1524079568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-163375200"/>
+        <c:axId val="1524076816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1604,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163372720"/>
+        <c:crossAx val="1524079568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1612,7 +1612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163372720"/>
+        <c:axId val="1524079568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1662,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163375200"/>
+        <c:crossAx val="1524076816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -1764,19 +1764,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,11 +1792,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-163348704"/>
-        <c:axId val="-163345952"/>
+        <c:axId val="1524098720"/>
+        <c:axId val="1524101472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-163348704"/>
+        <c:axId val="1524098720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +1839,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163345952"/>
+        <c:crossAx val="1524101472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1847,7 +1847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163345952"/>
+        <c:axId val="1524101472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1897,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163348704"/>
+        <c:crossAx val="1524098720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2318,11 +2318,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-163326832"/>
-        <c:axId val="-163324080"/>
+        <c:axId val="1524126384"/>
+        <c:axId val="1524129392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-163326832"/>
+        <c:axId val="1524126384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,7 +2365,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163324080"/>
+        <c:crossAx val="1524129392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2373,7 +2373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163324080"/>
+        <c:axId val="1524129392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2423,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163326832"/>
+        <c:crossAx val="1524126384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2553,11 +2553,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-163303872"/>
-        <c:axId val="-163301120"/>
+        <c:axId val="1524148512"/>
+        <c:axId val="1524151264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-163303872"/>
+        <c:axId val="1524148512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,7 +2600,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163301120"/>
+        <c:crossAx val="1524151264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2608,7 +2608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163301120"/>
+        <c:axId val="1524151264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +2658,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163303872"/>
+        <c:crossAx val="1524148512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2788,11 +2788,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-224317552"/>
-        <c:axId val="-224292528"/>
+        <c:axId val="1524170800"/>
+        <c:axId val="1524173552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-224317552"/>
+        <c:axId val="1524170800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,7 +2835,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-224292528"/>
+        <c:crossAx val="1524173552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2843,7 +2843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-224292528"/>
+        <c:axId val="1524173552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,7 +2893,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-224317552"/>
+        <c:crossAx val="1524170800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3023,11 +3023,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-261414672"/>
-        <c:axId val="-261411920"/>
+        <c:axId val="1524192240"/>
+        <c:axId val="1524194992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-261414672"/>
+        <c:axId val="1524192240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3070,7 +3070,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-261411920"/>
+        <c:crossAx val="1524194992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3078,7 +3078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-261411920"/>
+        <c:axId val="1524194992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,7 +3128,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-261414672"/>
+        <c:crossAx val="1524192240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3258,11 +3258,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-260421920"/>
-        <c:axId val="-260419440"/>
+        <c:axId val="1524214224"/>
+        <c:axId val="1524216976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-260421920"/>
+        <c:axId val="1524214224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,7 +3305,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260419440"/>
+        <c:crossAx val="1524216976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3313,7 +3313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-260419440"/>
+        <c:axId val="1524216976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260421920"/>
+        <c:crossAx val="1524214224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3813,11 +3813,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-163454768"/>
-        <c:axId val="-163452016"/>
+        <c:axId val="1413578656"/>
+        <c:axId val="1413619584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-163454768"/>
+        <c:axId val="1413578656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3859,7 +3859,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163452016"/>
+        <c:crossAx val="1413619584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3867,7 +3867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163452016"/>
+        <c:axId val="1413619584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +3917,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163454768"/>
+        <c:crossAx val="1413578656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4579,11 +4579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-163430272"/>
-        <c:axId val="-163427520"/>
+        <c:axId val="1415339360"/>
+        <c:axId val="1415342368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-163430272"/>
+        <c:axId val="1415339360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,7 +4626,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163427520"/>
+        <c:crossAx val="1415342368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4634,7 +4634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163427520"/>
+        <c:axId val="1415342368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4658,7 +4658,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-163430272"/>
+        <c:crossAx val="1415339360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5434,11 +5434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-163406752"/>
-        <c:axId val="-163404000"/>
+        <c:axId val="1523869664"/>
+        <c:axId val="1523872560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-163406752"/>
+        <c:axId val="1523869664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,7 +5481,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163404000"/>
+        <c:crossAx val="1523872560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5489,7 +5489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163404000"/>
+        <c:axId val="1523872560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5512,7 +5512,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-163406752"/>
+        <c:crossAx val="1523869664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5640,11 +5640,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-163384432"/>
-        <c:axId val="-163381680"/>
+        <c:axId val="1523892944"/>
+        <c:axId val="1523895696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-163384432"/>
+        <c:axId val="1523892944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5687,7 +5687,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163381680"/>
+        <c:crossAx val="1523895696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5695,7 +5695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163381680"/>
+        <c:axId val="1523895696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5745,7 +5745,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163384432"/>
+        <c:crossAx val="1523892944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -5875,11 +5875,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-260511728"/>
-        <c:axId val="-260508976"/>
+        <c:axId val="1523917488"/>
+        <c:axId val="1523920240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-260511728"/>
+        <c:axId val="1523917488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5922,7 +5922,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260508976"/>
+        <c:crossAx val="1523920240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5930,7 +5930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-260508976"/>
+        <c:axId val="1523920240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -5981,7 +5981,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260511728"/>
+        <c:crossAx val="1523917488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -6111,11 +6111,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-260489808"/>
-        <c:axId val="-260487056"/>
+        <c:axId val="1523939184"/>
+        <c:axId val="1523941936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-260489808"/>
+        <c:axId val="1523939184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,7 +6158,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260487056"/>
+        <c:crossAx val="1523941936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6166,7 +6166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-260487056"/>
+        <c:axId val="1523941936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6216,7 +6216,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260489808"/>
+        <c:crossAx val="1523939184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -6734,11 +6734,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-260466272"/>
-        <c:axId val="-260463520"/>
+        <c:axId val="1523969184"/>
+        <c:axId val="1523972080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-260466272"/>
+        <c:axId val="1523969184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6781,7 +6781,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260463520"/>
+        <c:crossAx val="1523972080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6789,7 +6789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-260463520"/>
+        <c:axId val="1523972080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6839,7 +6839,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260466272"/>
+        <c:crossAx val="1523969184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -6941,19 +6941,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6969,11 +6969,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-260442656"/>
-        <c:axId val="-260439904"/>
+        <c:axId val="1523990944"/>
+        <c:axId val="1523993696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-260442656"/>
+        <c:axId val="1523990944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7016,7 +7016,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260439904"/>
+        <c:crossAx val="1523993696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7024,7 +7024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-260439904"/>
+        <c:axId val="1523993696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7074,7 +7074,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260442656"/>
+        <c:crossAx val="1523990944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -18041,12 +18041,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.86631</cdr:x>
-      <cdr:y>0.90295</cdr:y>
+      <cdr:x>0.00343</cdr:x>
+      <cdr:y>0.89602</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.97227</cdr:y>
+      <cdr:x>0.13712</cdr:x>
+      <cdr:y>0.96534</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18055,8 +18055,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6419777" y="3308350"/>
-          <a:ext cx="990673" cy="254000"/>
+          <a:off x="25400" y="3282964"/>
+          <a:ext cx="990703" cy="253985"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18146,11 +18146,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01371</cdr:x>
+      <cdr:x>0.89974</cdr:x>
       <cdr:y>0.89314</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.16111</cdr:x>
+      <cdr:x>1</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -18160,8 +18160,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="101600" y="3272419"/>
-          <a:ext cx="1092273" cy="391531"/>
+          <a:off x="6667497" y="3272420"/>
+          <a:ext cx="742953" cy="391530"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18472,11 +18472,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01202</cdr:x>
-      <cdr:y>0.8812</cdr:y>
+      <cdr:x>0.88927</cdr:x>
+      <cdr:y>0.89981</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.15967</cdr:x>
+      <cdr:x>1</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -18486,8 +18486,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="88900" y="2904119"/>
-          <a:ext cx="1092273" cy="391531"/>
+          <a:off x="6578621" y="2965450"/>
+          <a:ext cx="819129" cy="330200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18577,12 +18577,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.86608</cdr:x>
-      <cdr:y>0.89017</cdr:y>
+      <cdr:x>0.00771</cdr:x>
+      <cdr:y>0.90558</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.96724</cdr:y>
+      <cdr:x>0.14163</cdr:x>
+      <cdr:y>0.98265</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18591,8 +18591,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6407077" y="2933700"/>
-          <a:ext cx="990673" cy="254000"/>
+          <a:off x="57043" y="2984489"/>
+          <a:ext cx="990707" cy="253996"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18901,11 +18901,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01371</cdr:x>
+      <cdr:x>0.88775</cdr:x>
       <cdr:y>0.87934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.16111</cdr:x>
+      <cdr:x>1</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -18915,8 +18915,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="101600" y="2853319"/>
-          <a:ext cx="1092273" cy="391531"/>
+          <a:off x="6578597" y="2853326"/>
+          <a:ext cx="831853" cy="391524"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -19006,12 +19006,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.86631</cdr:x>
-      <cdr:y>0.88454</cdr:y>
+      <cdr:x>0.0077</cdr:x>
+      <cdr:y>0.89237</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.96282</cdr:y>
+      <cdr:x>0.14139</cdr:x>
+      <cdr:y>0.97065</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -19020,8 +19020,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6419777" y="2870200"/>
-          <a:ext cx="990673" cy="254000"/>
+          <a:off x="57047" y="2895600"/>
+          <a:ext cx="990703" cy="254006"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -19745,7 +19745,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Perfectly</a:t>
+            <a:t>Certainly</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -19964,12 +19964,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.02996</cdr:x>
-      <cdr:y>0.92194</cdr:y>
+      <cdr:x>0.87137</cdr:x>
+      <cdr:y>0.9131</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.15859</cdr:x>
-      <cdr:y>0.9846</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.97576</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -19978,8 +19978,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="215900" y="3975100"/>
-          <a:ext cx="927100" cy="270138"/>
+          <a:off x="6280181" y="3936983"/>
+          <a:ext cx="927069" cy="270168"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -20063,12 +20063,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.87137</cdr:x>
-      <cdr:y>0.919</cdr:y>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.91605</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.98165</cdr:y>
+      <cdr:x>0.12863</cdr:x>
+      <cdr:y>0.9787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -20077,8 +20077,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6280150" y="3962400"/>
-          <a:ext cx="927100" cy="270138"/>
+          <a:off x="0" y="3949706"/>
+          <a:ext cx="927069" cy="270125"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -20812,11 +20812,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.87468</cdr:x>
+      <cdr:x>0</cdr:x>
       <cdr:y>0.89909</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
+      <cdr:x>0.12532</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -20826,8 +20826,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6515101" y="3488319"/>
-          <a:ext cx="933449" cy="391531"/>
+          <a:off x="0" y="3488334"/>
+          <a:ext cx="933452" cy="391516"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -20917,12 +20917,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01876</cdr:x>
-      <cdr:y>0.89909</cdr:y>
+      <cdr:x>0.88746</cdr:x>
+      <cdr:y>0.89254</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.1654</cdr:x>
-      <cdr:y>1</cdr:y>
+      <cdr:x>0.98806</cdr:x>
+      <cdr:y>0.99345</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -20931,8 +20931,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="139700" y="3488319"/>
-          <a:ext cx="1092273" cy="391531"/>
+          <a:off x="6610295" y="3462934"/>
+          <a:ext cx="749355" cy="391516"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21718,8 +21718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="G346" sqref="G346"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="S370" sqref="S370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21954,19 +21954,19 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -22005,19 +22005,19 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282">
         <v>3</v>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -22039,19 +22039,19 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
